--- a/doc/проект дб 02.xlsx
+++ b/doc/проект дб 02.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zovlanik\IdeaProjects\pr\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2D3A55-0534-4942-98B1-8B6808430285}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="27795" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="27795" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>Расписание работы</t>
   </si>
@@ -230,13 +236,16 @@
   </si>
   <si>
     <t>timestamp</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +503,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -514,7 +531,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Соединительная линия уступом 1"/>
+        <xdr:cNvPr id="2" name="Соединительная линия уступом 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -563,7 +586,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Соединительная линия уступом 2"/>
+        <xdr:cNvPr id="3" name="Соединительная линия уступом 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -612,7 +641,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Соединительная линия уступом 3"/>
+        <xdr:cNvPr id="4" name="Соединительная линия уступом 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -661,7 +696,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Соединительная линия уступом 4"/>
+        <xdr:cNvPr id="5" name="Соединительная линия уступом 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -710,7 +751,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Соединительная линия уступом 19"/>
+        <xdr:cNvPr id="20" name="Соединительная линия уступом 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -759,7 +806,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Соединительная линия уступом 22"/>
+        <xdr:cNvPr id="23" name="Соединительная линия уступом 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -808,7 +861,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Соединительная линия уступом 25"/>
+        <xdr:cNvPr id="26" name="Соединительная линия уступом 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -857,7 +916,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Соединительная линия уступом 27"/>
+        <xdr:cNvPr id="28" name="Соединительная линия уступом 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -906,7 +971,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Соединительная линия уступом 29"/>
+        <xdr:cNvPr id="30" name="Соединительная линия уступом 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -955,7 +1026,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Соединительная линия уступом 31"/>
+        <xdr:cNvPr id="32" name="Соединительная линия уступом 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1004,7 +1081,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Соединительная линия уступом 34"/>
+        <xdr:cNvPr id="35" name="Соединительная линия уступом 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1041,24 +1124,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>76202</xdr:colOff>
+      <xdr:colOff>38102</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>104778</xdr:rowOff>
+      <xdr:rowOff>114303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
+      <xdr:colOff>552451</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Соединительная линия уступом 38"/>
+        <xdr:cNvPr id="39" name="Соединительная линия уступом 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="11582402" y="3724278"/>
+          <a:off x="11591927" y="3733803"/>
           <a:ext cx="514349" cy="419098"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1102,7 +1191,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Соединительная линия уступом 41"/>
+        <xdr:cNvPr id="42" name="Соединительная линия уступом 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1151,7 +1246,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Соединительная линия уступом 43"/>
+        <xdr:cNvPr id="44" name="Соединительная линия уступом 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1200,7 +1301,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Соединительная линия уступом 45"/>
+        <xdr:cNvPr id="46" name="Соединительная линия уступом 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1249,7 +1356,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Соединительная линия уступом 47"/>
+        <xdr:cNvPr id="48" name="Соединительная линия уступом 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1298,7 +1411,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Соединительная линия уступом 49"/>
+        <xdr:cNvPr id="50" name="Соединительная линия уступом 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1347,7 +1466,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Соединительная линия уступом 51"/>
+        <xdr:cNvPr id="52" name="Соединительная линия уступом 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1396,7 +1521,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Соединительная линия уступом 53"/>
+        <xdr:cNvPr id="54" name="Соединительная линия уступом 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1476,7 +1607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1508,9 +1639,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1542,6 +1691,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1717,14 +1884,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33:N33"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
@@ -1743,7 +1910,7 @@
     <col min="21" max="21" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>7</v>
@@ -1752,7 +1919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>19</v>
@@ -1772,7 +1939,7 @@
       <c r="N2" s="23"/>
       <c r="P2" s="23"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="F3" s="22" t="s">
@@ -1785,7 +1952,7 @@
       <c r="N3" s="23"/>
       <c r="P3" s="23"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1807,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1829,7 +1996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F6" s="8" t="s">
         <v>28</v>
       </c>
@@ -1848,7 +2015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1868,7 +2035,7 @@
       <c r="N7" s="23"/>
       <c r="P7" s="23"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="13" t="s">
         <v>39</v>
       </c>
@@ -1888,7 +2055,7 @@
       <c r="N8" s="23"/>
       <c r="P8" s="23"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="14" t="s">
         <v>40</v>
       </c>
@@ -1910,7 +2077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F10" s="10" t="s">
         <v>32</v>
       </c>
@@ -1927,22 +2094,22 @@
         <v>66</v>
       </c>
       <c r="N10" s="23"/>
-      <c r="P10" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="29"/>
       <c r="N11" s="23"/>
-      <c r="P11" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
@@ -1950,15 +2117,15 @@
       <c r="M12" s="30"/>
       <c r="N12" s="23"/>
       <c r="P12" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="P13" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1971,8 +2138,11 @@
       <c r="J14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F15" s="20" t="s">
         <v>43</v>
       </c>
@@ -1989,7 +2159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F16" s="17" t="s">
         <v>44</v>
       </c>
@@ -2009,7 +2179,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2035,7 +2205,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
@@ -2062,7 +2232,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -2089,7 +2259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>23</v>
       </c>
@@ -2109,7 +2279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I21" s="8" t="s">
         <v>49</v>
       </c>
@@ -2132,7 +2302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G22" s="23"/>
       <c r="I22" s="8" t="s">
         <v>51</v>
@@ -2156,7 +2326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F23" s="23"/>
       <c r="G23" s="8" t="s">
         <v>25</v>
@@ -2174,7 +2344,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G24" s="13" t="s">
         <v>11</v>
       </c>
@@ -2185,66 +2355,66 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G25" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N26" s="31"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N27" s="31"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N28" s="31"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N29" s="31"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N30" s="31"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O31" s="31"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O32" s="31"/>
     </row>
-    <row r="33" spans="14:16">
+    <row r="33" spans="14:16" x14ac:dyDescent="0.25">
       <c r="O33" s="31"/>
     </row>
-    <row r="34" spans="14:16">
+    <row r="34" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N34" s="31"/>
     </row>
-    <row r="35" spans="14:16">
+    <row r="35" spans="14:16" x14ac:dyDescent="0.25">
       <c r="O35" s="31"/>
     </row>
-    <row r="36" spans="14:16">
+    <row r="36" spans="14:16" x14ac:dyDescent="0.25">
       <c r="O36" s="31"/>
     </row>
-    <row r="37" spans="14:16">
+    <row r="37" spans="14:16" x14ac:dyDescent="0.25">
       <c r="O37" s="31"/>
     </row>
-    <row r="38" spans="14:16">
+    <row r="38" spans="14:16" x14ac:dyDescent="0.25">
       <c r="O38" s="31"/>
     </row>
-    <row r="39" spans="14:16">
+    <row r="39" spans="14:16" x14ac:dyDescent="0.25">
       <c r="P39" s="31"/>
     </row>
-    <row r="40" spans="14:16">
+    <row r="40" spans="14:16" x14ac:dyDescent="0.25">
       <c r="P40" s="31"/>
     </row>
-    <row r="41" spans="14:16">
+    <row r="41" spans="14:16" x14ac:dyDescent="0.25">
       <c r="O41" s="31"/>
     </row>
-    <row r="42" spans="14:16">
+    <row r="42" spans="14:16" x14ac:dyDescent="0.25">
       <c r="P42" s="31"/>
     </row>
-    <row r="43" spans="14:16">
+    <row r="43" spans="14:16" x14ac:dyDescent="0.25">
       <c r="P43" s="31"/>
     </row>
-    <row r="44" spans="14:16">
+    <row r="44" spans="14:16" x14ac:dyDescent="0.25">
       <c r="O44" s="31"/>
     </row>
   </sheetData>

--- a/doc/проект дб 02.xlsx
+++ b/doc/проект дб 02.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zovlanik\IdeaProjects\pr\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2D3A55-0534-4942-98B1-8B6808430285}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="27795" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="27795" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
   <si>
     <t>Расписание работы</t>
   </si>
@@ -157,9 +151,6 @@
     <t>date_begin</t>
   </si>
   <si>
-    <t>time_begin</t>
-  </si>
-  <si>
     <t>date_end</t>
   </si>
   <si>
@@ -239,13 +230,37 @@
   </si>
   <si>
     <t>NONE</t>
+  </si>
+  <si>
+    <t>dBegin</t>
+  </si>
+  <si>
+    <t>dEnd</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>id_car_wash,</t>
+  </si>
+  <si>
+    <t>address,</t>
+  </si>
+  <si>
+    <t>cast(date_table as date),</t>
+  </si>
+  <si>
+    <t>count(*) as ch,</t>
+  </si>
+  <si>
+    <t>from</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -497,20 +512,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -531,13 +539,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Соединительная линия уступом 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Соединительная линия уступом 1"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -586,13 +588,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Соединительная линия уступом 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Соединительная линия уступом 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -641,13 +637,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Соединительная линия уступом 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Соединительная линия уступом 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -696,13 +686,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Соединительная линия уступом 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Соединительная линия уступом 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -739,31 +723,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38102</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>38104</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>647701</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Соединительная линия уступом 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="Соединительная линия уступом 19"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8005764" y="1614489"/>
-          <a:ext cx="1676400" cy="638173"/>
+          <a:off x="8062916" y="1700216"/>
+          <a:ext cx="1533523" cy="609597"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -806,13 +784,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Соединительная линия уступом 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="Соединительная линия уступом 22"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -861,13 +833,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Соединительная линия уступом 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="Соединительная линия уступом 25"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -916,13 +882,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Соединительная линия уступом 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="Соединительная линия уступом 27"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -971,13 +931,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Соединительная линия уступом 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="Соединительная линия уступом 29"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1026,13 +980,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Соединительная линия уступом 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="32" name="Соединительная линия уступом 31"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1081,13 +1029,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Соединительная линия уступом 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="35" name="Соединительная линия уступом 34"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1124,30 +1066,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38102</xdr:colOff>
+      <xdr:colOff>76202</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114303</xdr:rowOff>
+      <xdr:rowOff>104778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
+      <xdr:colOff>590551</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Соединительная линия уступом 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="39" name="Соединительная линия уступом 38"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="11591927" y="3733803"/>
+          <a:off x="11582402" y="3724278"/>
           <a:ext cx="514349" cy="419098"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1191,13 +1127,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Соединительная линия уступом 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="42" name="Соединительная линия уступом 41"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1246,13 +1176,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Соединительная линия уступом 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="44" name="Соединительная линия уступом 43"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1301,13 +1225,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Соединительная линия уступом 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="46" name="Соединительная линия уступом 45"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1356,13 +1274,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Соединительная линия уступом 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="48" name="Соединительная линия уступом 47"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1411,13 +1323,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Соединительная линия уступом 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="50" name="Соединительная линия уступом 49"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1466,13 +1372,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Соединительная линия уступом 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="52" name="Соединительная линия уступом 51"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1521,13 +1421,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Соединительная линия уступом 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="54" name="Соединительная линия уступом 53"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1607,7 +1501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1639,27 +1533,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1691,24 +1567,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1884,14 +1742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
@@ -1910,7 +1768,7 @@
     <col min="21" max="21" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>7</v>
@@ -1919,7 +1777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>19</v>
@@ -1928,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -1939,20 +1797,20 @@
       <c r="N2" s="23"/>
       <c r="P2" s="23"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="F3" s="22" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="23"/>
       <c r="N3" s="23"/>
       <c r="P3" s="23"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1960,21 +1818,15 @@
         <v>27</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="23"/>
-      <c r="L4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1</v>
-      </c>
       <c r="N4" s="23"/>
       <c r="P4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1982,40 +1834,46 @@
         <v>37</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="23"/>
-      <c r="L5" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>71</v>
+      <c r="L5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
       </c>
       <c r="N5" s="23"/>
       <c r="P5" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="F6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="23"/>
-      <c r="L6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>67</v>
+      <c r="L6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="N6" s="23"/>
       <c r="P6" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
@@ -2023,11 +1881,11 @@
         <v>29</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>66</v>
@@ -2035,7 +1893,7 @@
       <c r="N7" s="23"/>
       <c r="P7" s="23"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="C8" s="13" t="s">
         <v>39</v>
       </c>
@@ -2043,19 +1901,19 @@
         <v>30</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" s="23"/>
       <c r="P8" s="23"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="C9" s="14" t="s">
         <v>40</v>
       </c>
@@ -2063,53 +1921,59 @@
         <v>31</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N9" s="23"/>
       <c r="P9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="F10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N10" s="23"/>
-      <c r="P10" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P10" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="29"/>
       <c r="N11" s="23"/>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
@@ -2119,21 +1983,27 @@
       <c r="P12" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="P13" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
@@ -2142,102 +2012,102 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="F15" s="20" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="F16" s="17" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O17" s="28" t="s">
         <v>26</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7"/>
       <c r="F18" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>41</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O18" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="12"/>
       <c r="F19" s="23"/>
@@ -2247,19 +2117,19 @@
         <v>33</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O19" s="28" t="s">
         <v>36</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="H20" t="s">
         <v>23</v>
       </c>
@@ -2267,84 +2137,93 @@
         <v>34</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R20" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="I21" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" t="s">
         <v>1</v>
       </c>
       <c r="O21" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R21" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="G22" s="23"/>
       <c r="I22" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="O22" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R22" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="F23" s="23"/>
       <c r="G23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>26</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="G24" s="13" t="s">
         <v>11</v>
       </c>
@@ -2352,69 +2231,102 @@
         <v>35</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="G25" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="N26" s="31"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
       <c r="N27" s="31"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
       <c r="N28" s="31"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="N29" s="31"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
+      <c r="H30" t="s">
+        <v>74</v>
+      </c>
       <c r="N30" s="31"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
+      <c r="I31" t="s">
+        <v>75</v>
+      </c>
       <c r="O31" s="31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
+      <c r="I32" t="s">
+        <v>76</v>
+      </c>
       <c r="O32" s="31"/>
     </row>
-    <row r="33" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:16">
+      <c r="I33" t="s">
+        <v>77</v>
+      </c>
       <c r="O33" s="31"/>
     </row>
-    <row r="34" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:16">
+      <c r="I34" t="s">
+        <v>78</v>
+      </c>
       <c r="N34" s="31"/>
     </row>
-    <row r="35" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:16">
+      <c r="I35" t="s">
+        <v>35</v>
+      </c>
       <c r="O35" s="31"/>
     </row>
-    <row r="36" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:16">
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
       <c r="O36" s="31"/>
     </row>
-    <row r="37" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:16">
+      <c r="I37" t="s">
+        <v>54</v>
+      </c>
       <c r="O37" s="31"/>
     </row>
-    <row r="38" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:16">
+      <c r="I38" t="s">
+        <v>55</v>
+      </c>
       <c r="O38" s="31"/>
     </row>
-    <row r="39" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:16">
       <c r="P39" s="31"/>
     </row>
-    <row r="40" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:16">
       <c r="P40" s="31"/>
     </row>
-    <row r="41" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:16">
       <c r="O41" s="31"/>
     </row>
-    <row r="42" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:16">
       <c r="P42" s="31"/>
     </row>
-    <row r="43" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:16">
       <c r="P43" s="31"/>
     </row>
-    <row r="44" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:16">
       <c r="O44" s="31"/>
     </row>
   </sheetData>
